--- a/양식샘플-테이블명세-양식.xlsx
+++ b/양식샘플-테이블명세-양식.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505021\Documents\Workspace\dbms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AF5EA7-6A5F-485A-9021-D67F8188BDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868FE02D-A415-4A42-BBB1-3985050B80AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="4" r:id="rId1"/>
@@ -784,6 +784,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -807,12 +813,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1817,18 +1817,18 @@
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="33" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="37"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -1840,34 +1840,34 @@
       <c r="C3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="36" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="40"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -3002,18 +3002,18 @@
       <c r="C2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="33" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="37"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -3025,34 +3025,34 @@
       <c r="C3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="36" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="40"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
